--- a/CampDeBases/Sud-Ouest/Docs/2015-04-09 gsoi - sourcing lea.xlsx
+++ b/CampDeBases/Sud-Ouest/Docs/2015-04-09 gsoi - sourcing lea.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Camp de bases\Projects\CampDeBases\Sud-Ouest\Docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="540" windowWidth="23235" windowHeight="9480"/>
   </bookViews>
@@ -13,7 +18,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LEA!$A$1:$K$156</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LEA!$A$1:$L$156</definedName>
     <definedName name="ACTIONS_MARKETING">OFFSET([1]PMU!$A$1,VLOOKUP([1]entities!$B$3,[1]PMU!$B:$C,2,FALSE)-1,0,COUNTIF([1]PMU!$B:$B,[1]entities!$B$3),13)</definedName>
     <definedName name="APPS">OFFSET([1]PMU!$A$1,VLOOKUP([1]entities!$B$4,[1]PMU!$B:$C,2,FALSE)-1,0,COUNTIF([1]PMU!$B:$B,[1]entities!$B$4),13)</definedName>
     <definedName name="BONUS">OFFSET([1]PMU!$A$1,VLOOKUP([1]entities!$B$5,[1]PMU!$B:$C,2,FALSE)-1,0,COUNTIF([1]PMU!$B:$B,[1]entities!$B$5),13)</definedName>
@@ -53,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="432">
   <si>
     <t>NomSource</t>
   </si>
@@ -992,6 +997,363 @@
   </si>
   <si>
     <t>Clé</t>
+  </si>
+  <si>
+    <t>Последовательное ключ</t>
+  </si>
+  <si>
+    <t>Код статьи (не уникальный. Те же 2 версии)</t>
+  </si>
+  <si>
+    <t>название</t>
+  </si>
+  <si>
+    <t>Альтернативное название</t>
+  </si>
+  <si>
+    <t>Название статьи в его адрес</t>
+  </si>
+  <si>
+    <t>текст</t>
+  </si>
+  <si>
+    <t>подпись</t>
+  </si>
+  <si>
+    <t>шапка</t>
+  </si>
+  <si>
+    <t>Редакция Источник (значение Следующий редактор) ...</t>
+  </si>
+  <si>
+    <t>Мета сериализации поля: содержит все поля + некоторые другие наследству</t>
+  </si>
+  <si>
+    <t>Тип товара (АРТ: статья, BLO: HTM: HTML блок BLO: MOD: EXE: выполнение блока LEA, BLO: MOD: ISO: нормальный LEA блок BLO: MOD: MRG: погружают LEA блок BLO: PHP: PHP блок).</t>
+  </si>
+  <si>
+    <t>Профиль (портфолио)</t>
+  </si>
+  <si>
+    <t>Государство публикации</t>
+  </si>
+  <si>
+    <t>Версия статьи (проект, опубликовано, ...)</t>
+  </si>
+  <si>
+    <t>(Не используется)</t>
+  </si>
+  <si>
+    <t>Оригинал гиперссылка если внешних потоков</t>
+  </si>
+  <si>
+    <t>Программируемая релиз: дата начала</t>
+  </si>
+  <si>
+    <t>Запланированные публикации: Дата окончания</t>
+  </si>
+  <si>
+    <t>Полный текст для поиска</t>
+  </si>
+  <si>
+    <t>Дата создания (редактирования)</t>
+  </si>
+  <si>
+    <t>Изменение даты (изменяемый)</t>
+  </si>
+  <si>
+    <t>Дата создания</t>
+  </si>
+  <si>
+    <t>Дата Изменение</t>
+  </si>
+  <si>
+    <t>Пользователь создание Id</t>
+  </si>
+  <si>
+    <t>Изменить идентификатор пользователя</t>
+  </si>
+  <si>
+    <t>Дата замок (когда право собственности статья)</t>
+  </si>
+  <si>
+    <t>Идентификатор пользователя замок (когда право собственности статья)</t>
+  </si>
+  <si>
+    <t>Дата первой публикации</t>
+  </si>
+  <si>
+    <t>Дата последней публикации</t>
+  </si>
+  <si>
+    <t>Флаг плата / свободный (1/0)</t>
+  </si>
+  <si>
+    <t>Государство флага комментарии раздел</t>
+  </si>
+  <si>
+    <t>NB комментарии раздел</t>
+  </si>
+  <si>
+    <t>NB поставки другу</t>
+  </si>
+  <si>
+    <t>NB просмотров Статья</t>
+  </si>
+  <si>
+    <t>Поток импорта бумаги Id</t>
+  </si>
+  <si>
+    <t>Бумага издание (в зависимости от издателя)</t>
+  </si>
+  <si>
+    <t>Тема бумаги (в зависимости от издателя)</t>
+  </si>
+  <si>
+    <t>Нет страницы бумаги (в зависимости от издателя)</t>
+  </si>
+  <si>
+    <t>Стикер (см BO)</t>
+  </si>
+  <si>
+    <t>Альтернативная Hat</t>
+  </si>
+  <si>
+    <t>Флаг médiabong (1/0)</t>
+  </si>
+  <si>
+    <t>Флаг вечерний выпуск (1/0)</t>
+  </si>
+  <si>
+    <t>Путь тему</t>
+  </si>
+  <si>
+    <t>Название</t>
+  </si>
+  <si>
+    <t>Название в бэк-офис</t>
+  </si>
+  <si>
+    <t>гиперссылка</t>
+  </si>
+  <si>
+    <t>Тип темы (здесь: PAG :)</t>
+  </si>
+  <si>
+    <t>Уровень в структуре</t>
+  </si>
+  <si>
+    <t>Рейтинг порядок в ветви дерева</t>
+  </si>
+  <si>
+    <t>Флаг видимости</t>
+  </si>
+  <si>
+    <t>Флаг публикации</t>
+  </si>
+  <si>
+    <t>Флаг Новости</t>
+  </si>
+  <si>
+    <t>Имя (Информация пометки Arisem)</t>
+  </si>
+  <si>
+    <t>Тип (муниципалитет / личности / тематическая)</t>
+  </si>
+  <si>
+    <t>функция</t>
+  </si>
+  <si>
+    <t>Близлежащие города (Информация пометки Arisem)</t>
+  </si>
+  <si>
+    <t>Insee ближайшие города (Информация пометки Arisem)</t>
+  </si>
+  <si>
+    <t>Темы близко (Информация пометки Arisem)</t>
+  </si>
+  <si>
+    <t>Лексикализации (Информация пометки Arisem)</t>
+  </si>
+  <si>
+    <t>Тезаурус ошибка (информация пометки Arisem)</t>
+  </si>
+  <si>
+    <t>Ссылка 1</t>
+  </si>
+  <si>
+    <t>Ссылка 2</t>
+  </si>
+  <si>
+    <t>Ссылка 3</t>
+  </si>
+  <si>
+    <t>Ссылка: 1</t>
+  </si>
+  <si>
+    <t>Ссылка: 2</t>
+  </si>
+  <si>
+    <t>Ссылка: 3</t>
+  </si>
+  <si>
+    <t>Изображение 1 (гиперссылка)</t>
+  </si>
+  <si>
+    <t>Изображение 2 (гиперссылка)</t>
+  </si>
+  <si>
+    <t>Изображение 3 (URL)</t>
+  </si>
+  <si>
+    <t>Нет отдел</t>
+  </si>
+  <si>
+    <t>площадь</t>
+  </si>
+  <si>
+    <t>Почтовый индекс</t>
+  </si>
+  <si>
+    <t>НИСЭИ код</t>
+  </si>
+  <si>
+    <t>широта</t>
+  </si>
+  <si>
+    <t>долгота</t>
+  </si>
+  <si>
+    <t>Флаг гостиной</t>
+  </si>
+  <si>
+    <t>Флаг Solr индексация</t>
+  </si>
+  <si>
+    <t>Введите чтения компакт-дисков V1 поток</t>
+  </si>
+  <si>
+    <t>Блок говорить (наиболее часто используемых)</t>
+  </si>
+  <si>
+    <t>Изображение тема (параметры отображения)</t>
+  </si>
+  <si>
+    <t>Флаг домой спорт логотип (зависит от редактора)</t>
+  </si>
+  <si>
+    <t>Название гостиной</t>
+  </si>
+  <si>
+    <t>Путь жилой площади</t>
+  </si>
+  <si>
+    <t>Мобильная тег объявления</t>
+  </si>
+  <si>
+    <t>Соответствующий Id</t>
+  </si>
+  <si>
+    <t>Метка паб планшетные IOS</t>
+  </si>
+  <si>
+    <t>Объявление тегов андроид планшет</t>
+  </si>
+  <si>
+    <t>Мобильная тег объявления IOS</t>
+  </si>
+  <si>
+    <t>Android-паб тегов</t>
+  </si>
+  <si>
+    <t>Путь тему событий</t>
+  </si>
+  <si>
+    <t>Плата за флаг / бесплатно</t>
+  </si>
+  <si>
+    <t>Флаг домой Спорт (зависит от редактора)</t>
+  </si>
+  <si>
+    <t>Тема Описание</t>
+  </si>
+  <si>
+    <t>Прогноз область</t>
+  </si>
+  <si>
+    <t>Другое название (в зависимости от типа дополняется)</t>
+  </si>
+  <si>
+    <t>Текст комплемента (дополненного зависит от типа)</t>
+  </si>
+  <si>
+    <t>Подпись дополнение (дополнена в зависимости от типа)</t>
+  </si>
+  <si>
+    <t>Дополнение источником (зависит от типа дополняется)</t>
+  </si>
+  <si>
+    <t>Показать заказ в BO</t>
+  </si>
+  <si>
+    <t>Серийный различные поля (в зависимости от типа дополняется)</t>
+  </si>
+  <si>
+    <t>Дополнительная типа (изображение, код вставки, ссылки, ....) ...</t>
+  </si>
+  <si>
+    <t>1/0</t>
+  </si>
+  <si>
+    <t>Код статьи связаны с дополнением</t>
+  </si>
+  <si>
+    <t>Код статьи кросс ссылку</t>
+  </si>
+  <si>
+    <t>URL изображения</t>
+  </si>
+  <si>
+    <t>Этикетка (зависит от типа дополняется)</t>
+  </si>
+  <si>
+    <t>Md5 исходное изображение</t>
+  </si>
+  <si>
+    <t>Производные от изображения (в последовательном области)</t>
+  </si>
+  <si>
+    <t>МТС-ключ (в зависимости от типа дополняется)</t>
+  </si>
+  <si>
+    <t>тезаурус (зависит от типа дополняется)</t>
+  </si>
+  <si>
+    <t>Полный текст поиск</t>
+  </si>
+  <si>
+    <t>Модифицированный</t>
+  </si>
+  <si>
+    <t>Имя иерархии (тема)</t>
+  </si>
+  <si>
+    <t>Тип ассоциации (COL: (имя колонки): доц колонка руб: доц статьи, НПП: Специальный доц).</t>
+  </si>
+  <si>
+    <t>Определение статью</t>
+  </si>
+  <si>
+    <t>Название ассоциации (связь с темой)</t>
+  </si>
+  <si>
+    <t>о статье в ассоциации</t>
+  </si>
+  <si>
+    <t>Порядок связанные темы в статье</t>
+  </si>
+  <si>
+    <t>Порядок статьи перед публикацией (для проекта)</t>
   </si>
 </sst>
 </file>
@@ -2400,6 +2762,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -5635,7 +6000,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5677,7 +6042,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5712,7 +6077,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5921,19 +6286,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M156"/>
+  <dimension ref="A1:N156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A111" sqref="A111:XFD139"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="3"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="74.28515625" customWidth="1"/>
+    <col min="10" max="10" width="95.42578125" customWidth="1"/>
+    <col min="13" max="13" width="62.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5958,23 +6327,24 @@
       <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -5991,13 +6361,16 @@
         <v>11</v>
       </c>
       <c r="I2" t="s">
+        <v>313</v>
+      </c>
+      <c r="J2" t="s">
         <v>19</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -6014,13 +6387,16 @@
         <v>11</v>
       </c>
       <c r="I3" t="s">
+        <v>314</v>
+      </c>
+      <c r="J3" t="s">
         <v>42</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -6037,10 +6413,13 @@
         <v>11</v>
       </c>
       <c r="I4" t="s">
+        <v>315</v>
+      </c>
+      <c r="J4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -6057,10 +6436,13 @@
         <v>16</v>
       </c>
       <c r="I5" t="s">
+        <v>316</v>
+      </c>
+      <c r="J5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -6077,13 +6459,16 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
+        <v>317</v>
+      </c>
+      <c r="J6" t="s">
         <v>47</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -6100,13 +6485,16 @@
         <v>16</v>
       </c>
       <c r="I7" t="s">
+        <v>318</v>
+      </c>
+      <c r="J7" t="s">
         <v>26</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -6122,11 +6510,11 @@
       <c r="E8" t="s">
         <v>16</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -6143,13 +6531,16 @@
         <v>16</v>
       </c>
       <c r="I9" t="s">
+        <v>319</v>
+      </c>
+      <c r="J9" t="s">
         <v>51</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -6166,13 +6557,16 @@
         <v>16</v>
       </c>
       <c r="I10" t="s">
+        <v>320</v>
+      </c>
+      <c r="J10" t="s">
         <v>53</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -6189,13 +6583,16 @@
         <v>16</v>
       </c>
       <c r="I11" t="s">
+        <v>321</v>
+      </c>
+      <c r="J11" t="s">
         <v>55</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -6212,10 +6609,13 @@
         <v>46</v>
       </c>
       <c r="I12" t="s">
+        <v>322</v>
+      </c>
+      <c r="J12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -6232,13 +6632,16 @@
         <v>46</v>
       </c>
       <c r="I13" t="s">
+        <v>323</v>
+      </c>
+      <c r="J13" t="s">
         <v>59</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="N13" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -6255,10 +6658,13 @@
         <v>16</v>
       </c>
       <c r="I14" t="s">
+        <v>324</v>
+      </c>
+      <c r="J14" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -6275,13 +6681,16 @@
         <v>46</v>
       </c>
       <c r="I15" t="s">
+        <v>325</v>
+      </c>
+      <c r="J15" t="s">
         <v>63</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="N15" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -6298,10 +6707,13 @@
         <v>16</v>
       </c>
       <c r="I16" t="s">
+        <v>326</v>
+      </c>
+      <c r="J16" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -6318,10 +6730,13 @@
         <v>16</v>
       </c>
       <c r="I17" t="s">
+        <v>327</v>
+      </c>
+      <c r="J17" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -6338,10 +6753,13 @@
         <v>16</v>
       </c>
       <c r="I18" t="s">
+        <v>327</v>
+      </c>
+      <c r="J18" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -6358,10 +6776,13 @@
         <v>16</v>
       </c>
       <c r="I19" t="s">
+        <v>327</v>
+      </c>
+      <c r="J19" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -6378,13 +6799,16 @@
         <v>16</v>
       </c>
       <c r="I20" t="s">
+        <v>328</v>
+      </c>
+      <c r="J20" t="s">
         <v>71</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -6401,13 +6825,16 @@
         <v>16</v>
       </c>
       <c r="I21" t="s">
+        <v>329</v>
+      </c>
+      <c r="J21" t="s">
         <v>74</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -6424,10 +6851,13 @@
         <v>16</v>
       </c>
       <c r="I22" t="s">
+        <v>330</v>
+      </c>
+      <c r="J22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -6444,10 +6874,13 @@
         <v>16</v>
       </c>
       <c r="I23" t="s">
+        <v>327</v>
+      </c>
+      <c r="J23" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -6464,10 +6897,13 @@
         <v>16</v>
       </c>
       <c r="I24" t="s">
+        <v>327</v>
+      </c>
+      <c r="J24" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -6484,13 +6920,16 @@
         <v>16</v>
       </c>
       <c r="I25" t="s">
+        <v>331</v>
+      </c>
+      <c r="J25" t="s">
         <v>80</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -6507,10 +6946,13 @@
         <v>16</v>
       </c>
       <c r="I26" t="s">
+        <v>327</v>
+      </c>
+      <c r="J26" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -6527,10 +6969,13 @@
         <v>11</v>
       </c>
       <c r="I27" t="s">
+        <v>332</v>
+      </c>
+      <c r="J27" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -6547,10 +6992,13 @@
         <v>11</v>
       </c>
       <c r="I28" t="s">
+        <v>333</v>
+      </c>
+      <c r="J28" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -6567,10 +7015,13 @@
         <v>16</v>
       </c>
       <c r="I29" t="s">
+        <v>334</v>
+      </c>
+      <c r="J29" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -6587,10 +7038,13 @@
         <v>16</v>
       </c>
       <c r="I30" t="s">
+        <v>335</v>
+      </c>
+      <c r="J30" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -6607,10 +7061,13 @@
         <v>16</v>
       </c>
       <c r="I31" t="s">
+        <v>336</v>
+      </c>
+      <c r="J31" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -6627,10 +7084,13 @@
         <v>16</v>
       </c>
       <c r="I32" t="s">
+        <v>337</v>
+      </c>
+      <c r="J32" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -6647,10 +7107,13 @@
         <v>16</v>
       </c>
       <c r="I33" t="s">
+        <v>338</v>
+      </c>
+      <c r="J33" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -6667,10 +7130,13 @@
         <v>16</v>
       </c>
       <c r="I34" t="s">
+        <v>339</v>
+      </c>
+      <c r="J34" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -6687,10 +7153,13 @@
         <v>16</v>
       </c>
       <c r="I35" t="s">
+        <v>327</v>
+      </c>
+      <c r="J35" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -6707,10 +7176,13 @@
         <v>99</v>
       </c>
       <c r="I36" t="s">
+        <v>340</v>
+      </c>
+      <c r="J36" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -6727,10 +7199,13 @@
         <v>99</v>
       </c>
       <c r="I37" t="s">
+        <v>341</v>
+      </c>
+      <c r="J37" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -6747,10 +7222,13 @@
         <v>16</v>
       </c>
       <c r="I38" t="s">
+        <v>327</v>
+      </c>
+      <c r="J38" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -6767,10 +7245,13 @@
         <v>16</v>
       </c>
       <c r="I39" t="s">
+        <v>327</v>
+      </c>
+      <c r="J39" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -6787,10 +7268,13 @@
         <v>16</v>
       </c>
       <c r="I40" t="s">
+        <v>327</v>
+      </c>
+      <c r="J40" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>37</v>
       </c>
@@ -6807,13 +7291,16 @@
         <v>11</v>
       </c>
       <c r="I41" t="s">
+        <v>342</v>
+      </c>
+      <c r="J41" t="s">
         <v>105</v>
       </c>
-      <c r="L41" t="s">
+      <c r="M41" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>37</v>
       </c>
@@ -6830,10 +7317,13 @@
         <v>99</v>
       </c>
       <c r="I42" t="s">
+        <v>343</v>
+      </c>
+      <c r="J42" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -6850,10 +7340,13 @@
         <v>46</v>
       </c>
       <c r="I43" t="s">
+        <v>344</v>
+      </c>
+      <c r="J43" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>37</v>
       </c>
@@ -6870,10 +7363,13 @@
         <v>46</v>
       </c>
       <c r="I44" t="s">
+        <v>345</v>
+      </c>
+      <c r="J44" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>37</v>
       </c>
@@ -6890,10 +7386,13 @@
         <v>46</v>
       </c>
       <c r="I45" t="s">
+        <v>346</v>
+      </c>
+      <c r="J45" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>37</v>
       </c>
@@ -6910,10 +7409,13 @@
         <v>16</v>
       </c>
       <c r="I46" t="s">
+        <v>327</v>
+      </c>
+      <c r="J46" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>37</v>
       </c>
@@ -6930,10 +7432,13 @@
         <v>99</v>
       </c>
       <c r="I47" t="s">
+        <v>347</v>
+      </c>
+      <c r="J47" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>37</v>
       </c>
@@ -6950,10 +7455,13 @@
         <v>99</v>
       </c>
       <c r="I48" t="s">
+        <v>348</v>
+      </c>
+      <c r="J48" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>37</v>
       </c>
@@ -6970,10 +7478,13 @@
         <v>99</v>
       </c>
       <c r="I49" t="s">
+        <v>349</v>
+      </c>
+      <c r="J49" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -6990,10 +7501,13 @@
         <v>99</v>
       </c>
       <c r="I50" t="s">
+        <v>350</v>
+      </c>
+      <c r="J50" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>37</v>
       </c>
@@ -7010,10 +7524,13 @@
         <v>99</v>
       </c>
       <c r="I51" t="s">
+        <v>351</v>
+      </c>
+      <c r="J51" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>37</v>
       </c>
@@ -7030,10 +7547,13 @@
         <v>16</v>
       </c>
       <c r="I52" t="s">
+        <v>352</v>
+      </c>
+      <c r="J52" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>37</v>
       </c>
@@ -7050,10 +7570,13 @@
         <v>16</v>
       </c>
       <c r="I53" t="s">
+        <v>353</v>
+      </c>
+      <c r="J53" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>37</v>
       </c>
@@ -7070,10 +7593,13 @@
         <v>16</v>
       </c>
       <c r="I54" t="s">
+        <v>327</v>
+      </c>
+      <c r="J54" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>37</v>
       </c>
@@ -7090,10 +7616,13 @@
         <v>11</v>
       </c>
       <c r="I55" t="s">
+        <v>354</v>
+      </c>
+      <c r="J55" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>37</v>
       </c>
@@ -7110,10 +7639,13 @@
         <v>11</v>
       </c>
       <c r="I56" t="s">
+        <v>313</v>
+      </c>
+      <c r="J56" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>37</v>
       </c>
@@ -7130,13 +7662,16 @@
         <v>11</v>
       </c>
       <c r="I57" t="s">
+        <v>355</v>
+      </c>
+      <c r="J57" t="s">
         <v>139</v>
       </c>
-      <c r="L57" t="s">
+      <c r="M57" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>37</v>
       </c>
@@ -7153,10 +7688,13 @@
         <v>11</v>
       </c>
       <c r="I58" t="s">
+        <v>356</v>
+      </c>
+      <c r="J58" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>37</v>
       </c>
@@ -7173,13 +7711,16 @@
         <v>46</v>
       </c>
       <c r="I59" t="s">
+        <v>357</v>
+      </c>
+      <c r="J59" t="s">
         <v>143</v>
       </c>
-      <c r="L59" t="s">
+      <c r="M59" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>37</v>
       </c>
@@ -7196,10 +7737,13 @@
         <v>16</v>
       </c>
       <c r="I60" t="s">
+        <v>318</v>
+      </c>
+      <c r="J60" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>37</v>
       </c>
@@ -7216,13 +7760,16 @@
         <v>11</v>
       </c>
       <c r="I61" t="s">
+        <v>322</v>
+      </c>
+      <c r="J61" t="s">
         <v>57</v>
       </c>
-      <c r="M61" s="3" t="s">
+      <c r="N61" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>37</v>
       </c>
@@ -7239,13 +7786,16 @@
         <v>11</v>
       </c>
       <c r="I62" t="s">
+        <v>358</v>
+      </c>
+      <c r="J62" t="s">
         <v>147</v>
       </c>
-      <c r="L62" t="s">
+      <c r="M62" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>37</v>
       </c>
@@ -7262,10 +7812,13 @@
         <v>16</v>
       </c>
       <c r="I63" t="s">
+        <v>359</v>
+      </c>
+      <c r="J63" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>37</v>
       </c>
@@ -7282,10 +7835,13 @@
         <v>11</v>
       </c>
       <c r="I64" t="s">
+        <v>360</v>
+      </c>
+      <c r="J64" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>37</v>
       </c>
@@ -7302,10 +7858,13 @@
         <v>11</v>
       </c>
       <c r="I65" t="s">
+        <v>361</v>
+      </c>
+      <c r="J65" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>37</v>
       </c>
@@ -7322,10 +7881,13 @@
         <v>46</v>
       </c>
       <c r="I66" t="s">
+        <v>362</v>
+      </c>
+      <c r="J66" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>37</v>
       </c>
@@ -7342,10 +7904,13 @@
         <v>16</v>
       </c>
       <c r="I67" t="s">
+        <v>363</v>
+      </c>
+      <c r="J67" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>37</v>
       </c>
@@ -7362,13 +7927,16 @@
         <v>46</v>
       </c>
       <c r="I68" t="s">
+        <v>364</v>
+      </c>
+      <c r="J68" t="s">
         <v>159</v>
       </c>
-      <c r="M68" s="3" t="s">
+      <c r="N68" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>37</v>
       </c>
@@ -7385,13 +7953,16 @@
         <v>11</v>
       </c>
       <c r="I69" t="s">
+        <v>365</v>
+      </c>
+      <c r="J69" t="s">
         <v>162</v>
       </c>
-      <c r="M69" s="3" t="s">
+      <c r="N69" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>37</v>
       </c>
@@ -7408,10 +7979,13 @@
         <v>11</v>
       </c>
       <c r="I70" t="s">
+        <v>366</v>
+      </c>
+      <c r="J70" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>37</v>
       </c>
@@ -7428,10 +8002,13 @@
         <v>16</v>
       </c>
       <c r="I71" t="s">
+        <v>367</v>
+      </c>
+      <c r="J71" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>37</v>
       </c>
@@ -7448,10 +8025,13 @@
         <v>11</v>
       </c>
       <c r="I72" t="s">
+        <v>368</v>
+      </c>
+      <c r="J72" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>37</v>
       </c>
@@ -7468,10 +8048,13 @@
         <v>11</v>
       </c>
       <c r="I73" t="s">
+        <v>369</v>
+      </c>
+      <c r="J73" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>37</v>
       </c>
@@ -7488,10 +8071,13 @@
         <v>11</v>
       </c>
       <c r="I74" t="s">
+        <v>370</v>
+      </c>
+      <c r="J74" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>37</v>
       </c>
@@ -7508,13 +8094,16 @@
         <v>46</v>
       </c>
       <c r="I75" t="s">
+        <v>371</v>
+      </c>
+      <c r="J75" t="s">
         <v>176</v>
       </c>
-      <c r="M75" s="3" t="s">
+      <c r="N75" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>37</v>
       </c>
@@ -7531,13 +8120,16 @@
         <v>16</v>
       </c>
       <c r="I76" t="s">
+        <v>372</v>
+      </c>
+      <c r="J76" t="s">
         <v>178</v>
       </c>
-      <c r="L76" t="s">
+      <c r="M76" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>37</v>
       </c>
@@ -7554,13 +8146,16 @@
         <v>16</v>
       </c>
       <c r="I77" t="s">
+        <v>373</v>
+      </c>
+      <c r="J77" t="s">
         <v>181</v>
       </c>
-      <c r="L77" t="s">
+      <c r="M77" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>37</v>
       </c>
@@ -7577,13 +8172,16 @@
         <v>16</v>
       </c>
       <c r="I78" t="s">
+        <v>374</v>
+      </c>
+      <c r="J78" t="s">
         <v>184</v>
       </c>
-      <c r="L78" t="s">
+      <c r="M78" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>37</v>
       </c>
@@ -7600,13 +8198,16 @@
         <v>16</v>
       </c>
       <c r="I79" t="s">
+        <v>375</v>
+      </c>
+      <c r="J79" t="s">
         <v>186</v>
       </c>
-      <c r="L79" t="s">
+      <c r="M79" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>37</v>
       </c>
@@ -7623,13 +8224,16 @@
         <v>16</v>
       </c>
       <c r="I80" t="s">
+        <v>376</v>
+      </c>
+      <c r="J80" t="s">
         <v>188</v>
       </c>
-      <c r="L80" t="s">
+      <c r="M80" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>37</v>
       </c>
@@ -7646,13 +8250,16 @@
         <v>16</v>
       </c>
       <c r="I81" t="s">
+        <v>377</v>
+      </c>
+      <c r="J81" t="s">
         <v>191</v>
       </c>
-      <c r="L81" t="s">
+      <c r="M81" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>37</v>
       </c>
@@ -7669,13 +8276,16 @@
         <v>16</v>
       </c>
       <c r="I82" t="s">
+        <v>378</v>
+      </c>
+      <c r="J82" t="s">
         <v>193</v>
       </c>
-      <c r="L82" t="s">
+      <c r="M82" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>37</v>
       </c>
@@ -7692,13 +8302,16 @@
         <v>16</v>
       </c>
       <c r="I83" t="s">
+        <v>379</v>
+      </c>
+      <c r="J83" t="s">
         <v>195</v>
       </c>
-      <c r="L83" t="s">
+      <c r="M83" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>37</v>
       </c>
@@ -7715,13 +8328,16 @@
         <v>16</v>
       </c>
       <c r="I84" t="s">
+        <v>380</v>
+      </c>
+      <c r="J84" t="s">
         <v>198</v>
       </c>
-      <c r="L84" t="s">
+      <c r="M84" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>37</v>
       </c>
@@ -7738,13 +8354,16 @@
         <v>16</v>
       </c>
       <c r="I85" t="s">
+        <v>381</v>
+      </c>
+      <c r="J85" t="s">
         <v>200</v>
       </c>
-      <c r="L85" t="s">
+      <c r="M85" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>37</v>
       </c>
@@ -7761,10 +8380,13 @@
         <v>11</v>
       </c>
       <c r="I86" t="s">
+        <v>382</v>
+      </c>
+      <c r="J86" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>37</v>
       </c>
@@ -7781,10 +8403,13 @@
         <v>11</v>
       </c>
       <c r="I87" t="s">
+        <v>383</v>
+      </c>
+      <c r="J87" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>37</v>
       </c>
@@ -7801,10 +8426,13 @@
         <v>11</v>
       </c>
       <c r="I88" t="s">
+        <v>384</v>
+      </c>
+      <c r="J88" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>37</v>
       </c>
@@ -7821,10 +8449,13 @@
         <v>11</v>
       </c>
       <c r="I89" t="s">
+        <v>385</v>
+      </c>
+      <c r="J89" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>37</v>
       </c>
@@ -7841,10 +8472,13 @@
         <v>11</v>
       </c>
       <c r="I90" t="s">
+        <v>386</v>
+      </c>
+      <c r="J90" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>37</v>
       </c>
@@ -7861,10 +8495,13 @@
         <v>11</v>
       </c>
       <c r="I91" t="s">
+        <v>387</v>
+      </c>
+      <c r="J91" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>37</v>
       </c>
@@ -7881,10 +8518,13 @@
         <v>11</v>
       </c>
       <c r="I92" t="s">
+        <v>388</v>
+      </c>
+      <c r="J92" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>37</v>
       </c>
@@ -7901,13 +8541,16 @@
         <v>99</v>
       </c>
       <c r="I93" t="s">
+        <v>389</v>
+      </c>
+      <c r="J93" t="s">
         <v>217</v>
       </c>
-      <c r="L93" t="s">
+      <c r="M93" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>37</v>
       </c>
@@ -7924,13 +8567,16 @@
         <v>16</v>
       </c>
       <c r="I94" t="s">
+        <v>390</v>
+      </c>
+      <c r="J94" t="s">
         <v>220</v>
       </c>
-      <c r="L94" t="s">
+      <c r="M94" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>37</v>
       </c>
@@ -7947,10 +8593,13 @@
         <v>16</v>
       </c>
       <c r="I95" t="s">
+        <v>391</v>
+      </c>
+      <c r="J95" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>37</v>
       </c>
@@ -7967,13 +8616,16 @@
         <v>16</v>
       </c>
       <c r="I96" t="s">
+        <v>392</v>
+      </c>
+      <c r="J96" t="s">
         <v>226</v>
       </c>
-      <c r="L96" t="s">
+      <c r="M96" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>37</v>
       </c>
@@ -7990,13 +8642,16 @@
         <v>46</v>
       </c>
       <c r="I97" t="s">
+        <v>393</v>
+      </c>
+      <c r="J97" t="s">
         <v>229</v>
       </c>
-      <c r="M97" s="3" t="s">
+      <c r="N97" s="3" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>37</v>
       </c>
@@ -8013,10 +8668,13 @@
         <v>11</v>
       </c>
       <c r="I98" t="s">
+        <v>394</v>
+      </c>
+      <c r="J98" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>37</v>
       </c>
@@ -8033,10 +8691,13 @@
         <v>11</v>
       </c>
       <c r="I99" t="s">
+        <v>395</v>
+      </c>
+      <c r="J99" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>37</v>
       </c>
@@ -8053,10 +8714,13 @@
         <v>16</v>
       </c>
       <c r="I100" t="s">
+        <v>396</v>
+      </c>
+      <c r="J100" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>37</v>
       </c>
@@ -8073,13 +8737,16 @@
         <v>16</v>
       </c>
       <c r="I101" t="s">
+        <v>397</v>
+      </c>
+      <c r="J101" t="s">
         <v>239</v>
       </c>
-      <c r="L101" t="s">
+      <c r="M101" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>37</v>
       </c>
@@ -8096,13 +8763,16 @@
         <v>16</v>
       </c>
       <c r="I102" t="s">
+        <v>398</v>
+      </c>
+      <c r="J102" t="s">
         <v>242</v>
       </c>
-      <c r="L102" t="s">
+      <c r="M102" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>37</v>
       </c>
@@ -8119,13 +8789,16 @@
         <v>16</v>
       </c>
       <c r="I103" t="s">
+        <v>399</v>
+      </c>
+      <c r="J103" t="s">
         <v>245</v>
       </c>
-      <c r="L103" t="s">
+      <c r="M103" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>37</v>
       </c>
@@ -8142,13 +8815,16 @@
         <v>16</v>
       </c>
       <c r="I104" t="s">
+        <v>400</v>
+      </c>
+      <c r="J104" t="s">
         <v>247</v>
       </c>
-      <c r="L104" t="s">
+      <c r="M104" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>37</v>
       </c>
@@ -8165,13 +8841,16 @@
         <v>16</v>
       </c>
       <c r="I105" t="s">
+        <v>401</v>
+      </c>
+      <c r="J105" t="s">
         <v>249</v>
       </c>
-      <c r="L105" t="s">
+      <c r="M105" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>37</v>
       </c>
@@ -8188,10 +8867,13 @@
         <v>16</v>
       </c>
       <c r="I106" t="s">
+        <v>402</v>
+      </c>
+      <c r="J106" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>37</v>
       </c>
@@ -8208,13 +8890,16 @@
         <v>16</v>
       </c>
       <c r="I107" t="s">
+        <v>403</v>
+      </c>
+      <c r="J107" t="s">
         <v>253</v>
       </c>
-      <c r="L107" t="s">
+      <c r="M107" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>37</v>
       </c>
@@ -8231,13 +8916,16 @@
         <v>16</v>
       </c>
       <c r="I108" t="s">
+        <v>404</v>
+      </c>
+      <c r="J108" t="s">
         <v>256</v>
       </c>
-      <c r="L108" t="s">
+      <c r="M108" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>37</v>
       </c>
@@ -8254,10 +8942,13 @@
         <v>16</v>
       </c>
       <c r="I109" t="s">
+        <v>405</v>
+      </c>
+      <c r="J109" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>37</v>
       </c>
@@ -8274,13 +8965,16 @@
         <v>16</v>
       </c>
       <c r="I110" t="s">
+        <v>406</v>
+      </c>
+      <c r="J110" t="s">
         <v>261</v>
       </c>
-      <c r="L110" t="s">
+      <c r="M110" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>37</v>
       </c>
@@ -8297,10 +8991,13 @@
         <v>16</v>
       </c>
       <c r="I111" t="s">
+        <v>313</v>
+      </c>
+      <c r="J111" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>37</v>
       </c>
@@ -8317,10 +9014,13 @@
         <v>16</v>
       </c>
       <c r="I112" t="s">
+        <v>407</v>
+      </c>
+      <c r="J112" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>37</v>
       </c>
@@ -8337,10 +9037,13 @@
         <v>16</v>
       </c>
       <c r="I113" t="s">
+        <v>408</v>
+      </c>
+      <c r="J113" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>37</v>
       </c>
@@ -8357,10 +9060,13 @@
         <v>16</v>
       </c>
       <c r="I114" t="s">
+        <v>409</v>
+      </c>
+      <c r="J114" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>37</v>
       </c>
@@ -8377,10 +9083,13 @@
         <v>16</v>
       </c>
       <c r="I115" t="s">
+        <v>410</v>
+      </c>
+      <c r="J115" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>37</v>
       </c>
@@ -8397,10 +9106,13 @@
         <v>16</v>
       </c>
       <c r="I116" t="s">
+        <v>411</v>
+      </c>
+      <c r="J116" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>37</v>
       </c>
@@ -8417,10 +9129,13 @@
         <v>16</v>
       </c>
       <c r="I117" t="s">
+        <v>412</v>
+      </c>
+      <c r="J117" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>37</v>
       </c>
@@ -8437,10 +9152,13 @@
         <v>16</v>
       </c>
       <c r="I118" t="s">
+        <v>413</v>
+      </c>
+      <c r="J118" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>37</v>
       </c>
@@ -8457,10 +9175,13 @@
         <v>16</v>
       </c>
       <c r="I119" t="s">
+        <v>327</v>
+      </c>
+      <c r="J119" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>37</v>
       </c>
@@ -8477,10 +9198,13 @@
         <v>16</v>
       </c>
       <c r="I120" t="s">
+        <v>414</v>
+      </c>
+      <c r="J120" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>37</v>
       </c>
@@ -8497,10 +9221,13 @@
         <v>16</v>
       </c>
       <c r="I121" t="s">
+        <v>415</v>
+      </c>
+      <c r="J121" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>37</v>
       </c>
@@ -8517,10 +9244,13 @@
         <v>16</v>
       </c>
       <c r="I122" t="s">
+        <v>416</v>
+      </c>
+      <c r="J122" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>37</v>
       </c>
@@ -8537,10 +9267,13 @@
         <v>16</v>
       </c>
       <c r="I123" t="s">
+        <v>417</v>
+      </c>
+      <c r="J123" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>37</v>
       </c>
@@ -8557,10 +9290,13 @@
         <v>16</v>
       </c>
       <c r="I124" t="s">
+        <v>418</v>
+      </c>
+      <c r="J124" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>37</v>
       </c>
@@ -8577,10 +9313,13 @@
         <v>16</v>
       </c>
       <c r="I125" t="s">
+        <v>419</v>
+      </c>
+      <c r="J125" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>37</v>
       </c>
@@ -8597,10 +9336,13 @@
         <v>16</v>
       </c>
       <c r="I126" t="s">
+        <v>420</v>
+      </c>
+      <c r="J126" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>37</v>
       </c>
@@ -8617,10 +9359,13 @@
         <v>16</v>
       </c>
       <c r="I127" t="s">
+        <v>421</v>
+      </c>
+      <c r="J127" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>37</v>
       </c>
@@ -8637,10 +9382,13 @@
         <v>16</v>
       </c>
       <c r="I128" t="s">
+        <v>422</v>
+      </c>
+      <c r="J128" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>37</v>
       </c>
@@ -8657,10 +9405,13 @@
         <v>16</v>
       </c>
       <c r="I129" t="s">
+        <v>423</v>
+      </c>
+      <c r="J129" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>37</v>
       </c>
@@ -8677,10 +9428,13 @@
         <v>16</v>
       </c>
       <c r="I130" t="s">
+        <v>327</v>
+      </c>
+      <c r="J130" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>37</v>
       </c>
@@ -8697,10 +9451,13 @@
         <v>16</v>
       </c>
       <c r="I131" t="s">
+        <v>334</v>
+      </c>
+      <c r="J131" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>37</v>
       </c>
@@ -8717,10 +9474,13 @@
         <v>16</v>
       </c>
       <c r="I132" t="s">
+        <v>424</v>
+      </c>
+      <c r="J132" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>37</v>
       </c>
@@ -8737,10 +9497,13 @@
         <v>16</v>
       </c>
       <c r="I133" t="s">
+        <v>336</v>
+      </c>
+      <c r="J133" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>37</v>
       </c>
@@ -8757,10 +9520,13 @@
         <v>16</v>
       </c>
       <c r="I134" t="s">
+        <v>337</v>
+      </c>
+      <c r="J134" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>37</v>
       </c>
@@ -8777,10 +9543,13 @@
         <v>16</v>
       </c>
       <c r="I135" t="s">
+        <v>327</v>
+      </c>
+      <c r="J135" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>37</v>
       </c>
@@ -8797,10 +9566,13 @@
         <v>16</v>
       </c>
       <c r="I136" t="s">
+        <v>327</v>
+      </c>
+      <c r="J136" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>37</v>
       </c>
@@ -8817,10 +9589,13 @@
         <v>11</v>
       </c>
       <c r="I137" t="s">
+        <v>313</v>
+      </c>
+      <c r="J137" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>37</v>
       </c>
@@ -8837,10 +9612,13 @@
         <v>11</v>
       </c>
       <c r="I138" t="s">
+        <v>425</v>
+      </c>
+      <c r="J138" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>37</v>
       </c>
@@ -8857,10 +9635,13 @@
         <v>11</v>
       </c>
       <c r="I139" t="s">
+        <v>426</v>
+      </c>
+      <c r="J139" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>37</v>
       </c>
@@ -8877,10 +9658,13 @@
         <v>16</v>
       </c>
       <c r="I140" t="s">
+        <v>327</v>
+      </c>
+      <c r="J140" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>37</v>
       </c>
@@ -8897,10 +9681,13 @@
         <v>16</v>
       </c>
       <c r="I141" t="s">
+        <v>327</v>
+      </c>
+      <c r="J141" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>37</v>
       </c>
@@ -8917,10 +9704,13 @@
         <v>11</v>
       </c>
       <c r="I142" t="s">
+        <v>427</v>
+      </c>
+      <c r="J142" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>37</v>
       </c>
@@ -8937,10 +9727,13 @@
         <v>11</v>
       </c>
       <c r="I143" t="s">
+        <v>428</v>
+      </c>
+      <c r="J143" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>37</v>
       </c>
@@ -8957,10 +9750,13 @@
         <v>11</v>
       </c>
       <c r="I144" t="s">
+        <v>429</v>
+      </c>
+      <c r="J144" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>37</v>
       </c>
@@ -8977,10 +9773,13 @@
         <v>11</v>
       </c>
       <c r="I145" t="s">
+        <v>430</v>
+      </c>
+      <c r="J145" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>37</v>
       </c>
@@ -8997,10 +9796,13 @@
         <v>16</v>
       </c>
       <c r="I146" t="s">
+        <v>431</v>
+      </c>
+      <c r="J146" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>37</v>
       </c>
@@ -9017,10 +9819,13 @@
         <v>16</v>
       </c>
       <c r="I147" t="s">
+        <v>327</v>
+      </c>
+      <c r="J147" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>37</v>
       </c>
@@ -9037,10 +9842,13 @@
         <v>16</v>
       </c>
       <c r="I148" t="s">
+        <v>327</v>
+      </c>
+      <c r="J148" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>37</v>
       </c>
@@ -9057,10 +9865,13 @@
         <v>16</v>
       </c>
       <c r="I149" t="s">
+        <v>327</v>
+      </c>
+      <c r="J149" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>37</v>
       </c>
@@ -9077,10 +9888,13 @@
         <v>16</v>
       </c>
       <c r="I150" t="s">
+        <v>327</v>
+      </c>
+      <c r="J150" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>37</v>
       </c>
@@ -9097,10 +9911,13 @@
         <v>16</v>
       </c>
       <c r="I151" t="s">
+        <v>327</v>
+      </c>
+      <c r="J151" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>37</v>
       </c>
@@ -9117,10 +9934,13 @@
         <v>16</v>
       </c>
       <c r="I152" t="s">
+        <v>327</v>
+      </c>
+      <c r="J152" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>37</v>
       </c>
@@ -9137,10 +9957,13 @@
         <v>11</v>
       </c>
       <c r="I153" t="s">
+        <v>334</v>
+      </c>
+      <c r="J153" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>37</v>
       </c>
@@ -9157,10 +9980,13 @@
         <v>11</v>
       </c>
       <c r="I154" t="s">
+        <v>424</v>
+      </c>
+      <c r="J154" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>37</v>
       </c>
@@ -9177,10 +10003,13 @@
         <v>16</v>
       </c>
       <c r="I155" t="s">
+        <v>336</v>
+      </c>
+      <c r="J155" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>37</v>
       </c>
@@ -9197,11 +10026,14 @@
         <v>16</v>
       </c>
       <c r="I156" t="s">
+        <v>337</v>
+      </c>
+      <c r="J156" t="s">
         <v>92</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K156"/>
+  <autoFilter ref="A1:L156"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
